--- a/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_poisson.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/BRT_Output_bruvs/contrib_mod_best_fixed_reduced_richness_tot_poisson.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>45.55253247854337</v>
+        <v>47.02644121915321</v>
       </c>
     </row>
     <row r="3">
@@ -386,27 +386,27 @@
         </is>
       </c>
       <c r="B3">
-        <v>20.1933021751456</v>
+        <v>31.0315986193227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>SSTmean</t>
         </is>
       </c>
       <c r="B4">
-        <v>17.4782985080064</v>
+        <v>12.56996546338404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ReefMinDist</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B5">
-        <v>16.77586683830463</v>
+        <v>9.371994698140039</v>
       </c>
     </row>
   </sheetData>
